--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1691300.220215761</v>
+        <v>1723878.43473096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075584</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>37.12283097261258</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>193.4616495665634</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>185.0333587736945</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.35820752796802</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>136.2596707471932</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1262,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>177.9203060456191</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.7849847350465</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>188.3396827868512</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>263.3949424079345</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1461,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>82.28018995116467</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>222.8574004389027</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.6080685705887</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>92.4784086463653</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>62.96263115254895</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>28.13786146382106</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1742,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>146.9588715784964</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>149.4444468552826</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>111.496938880258</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>106.1684858014907</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,10 +1931,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -1941,7 +1943,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>43.35606979968777</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>56.1017408473855</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>162.6527013997671</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>320.2177584383617</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,10 +2213,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U21" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>34.50575017090058</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>44.27085031706623</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>24.97975510385934</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2338,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>12.96087811465634</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2406,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>77.41754251185463</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>92.96858446131027</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>59.85750677920095</v>
       </c>
       <c r="G26" t="n">
-        <v>198.5557946489328</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -2609,7 +2611,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2637,13 +2639,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>115.0135424380018</v>
+        <v>112.637689266747</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>156.8482076906877</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>226.8173880245701</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>108.4745897976403</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>191.3427905487002</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -2837,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>123.6077575056603</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2919,13 +2921,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.5421541965934</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>115.1165353722836</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>13.3971696935598</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>94.49664754148353</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>121.2319043344055</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>248.739954744872</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.03218749909109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>152.9376416850984</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,19 +3316,19 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>141.1639911524892</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3405,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>94.38897766723555</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>85.01043530101144</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>84.54254454879647</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>13.39716969355935</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>291.8545418906494</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -3563,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,10 +3599,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>7.470667384472012</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>37.70017516618166</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>99.97284885135851</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3757,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>97.03190696309366</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>123.6077575056603</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>120.1263698699163</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.0302993558349</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>331.6174744130207</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4027,7 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>130.246794482944</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -4065,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>91.6867458199809</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4116,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>108.0765134097</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.9705324835873</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>122.5415447766139</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.5807722530562</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C3" t="n">
-        <v>109.5807722530562</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D3" t="n">
-        <v>109.5807722530562</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>768.6413478676429</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>525.1925712235429</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>317.3410710180102</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.5807722530562</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4531,7 +4533,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>865.715531745012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>865.715531745012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>865.715531745012</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>637.4919134814011</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>402.3398052496583</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>402.3398052496583</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X6" t="n">
-        <v>194.4883050441255</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.4883050441255</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>683.1701452093612</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>683.1701452093612</v>
       </c>
       <c r="W9" t="n">
-        <v>217.7978866064798</v>
+        <v>683.1701452093612</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>475.3186450038284</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>475.3186450038284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1016.293597920344</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C11" t="n">
-        <v>1016.293597920344</v>
+        <v>1975.787305141805</v>
       </c>
       <c r="D11" t="n">
-        <v>1016.293597920344</v>
+        <v>1617.521606535054</v>
       </c>
       <c r="E11" t="n">
-        <v>630.5053453221001</v>
+        <v>1231.73335393681</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>820.7474491472024</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>402.4756816300872</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1016.293597920344</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1016.293597920344</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1016.293597920344</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>850.8043343374655</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>676.3513050563386</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>527.4168953950873</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>368.1794403896317</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5121,10 +5123,10 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
         <v>974.4476973832902</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>2123.072528197426</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U12" t="n">
-        <v>1894.892063851584</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V12" t="n">
-        <v>1659.739955619841</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
-        <v>1434.63147032802</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>1226.779970122487</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>1019.019671357534</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I13" t="n">
         <v>102.3180182963936</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.7790225382929</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1793.704175370224</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>1793.704175370224</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>1435.438476763473</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
         <v>1371.839859437666</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5306,22 +5308,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1793.704175370224</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1793.704175370224</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1793.704175370224</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1793.704175370224</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.3481019751835</v>
+        <v>701.8699246762143</v>
       </c>
       <c r="C15" t="n">
-        <v>615.8950726940565</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="D15" t="n">
-        <v>466.9606630328052</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E15" t="n">
-        <v>466.9606630328052</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F15" t="n">
-        <v>320.4261050596901</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G15" t="n">
-        <v>182.3512191923822</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>75.31707872833226</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5358,22 +5360,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5388,19 +5390,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1775.086525626713</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1539.934417394971</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1285.697060666769</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1077.845560461236</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.3481019751835</v>
+        <v>870.0852616962823</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>556.1146817709025</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="C17" t="n">
-        <v>556.1146817709025</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="D17" t="n">
-        <v>197.848983164152</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5513,13 +5515,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2232.126651496097</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2232.126651496097</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2232.126651496097</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>1901.063764152526</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>1548.295108882412</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>1174.829350621332</v>
       </c>
       <c r="Y17" t="n">
-        <v>556.1146817709025</v>
+        <v>1174.829350621332</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>683.1072072262029</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>508.654177945076</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F18" t="n">
         <v>359.7197682838247</v>
@@ -5595,7 +5597,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
         <v>705.6153558007836</v>
@@ -5622,22 +5624,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J19" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5698,25 +5700,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>563.9745635376357</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V19" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W19" t="n">
-        <v>551.1001483379411</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>323.1105974399237</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1536.135517417229</v>
+        <v>739.3097946329265</v>
       </c>
       <c r="C20" t="n">
-        <v>1536.135517417229</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="D20" t="n">
-        <v>1536.135517417229</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>370.3472776925148</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5777,25 +5779,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U20" t="n">
-        <v>1867.1984047608</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V20" t="n">
-        <v>1536.135517417229</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W20" t="n">
-        <v>1536.135517417229</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="X20" t="n">
-        <v>1536.135517417229</v>
+        <v>739.3097946329265</v>
       </c>
       <c r="Y20" t="n">
-        <v>1536.135517417229</v>
+        <v>739.3097946329265</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P21" t="n">
         <v>2344.749822082216</v>
@@ -5859,22 +5861,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2123.072528197426</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.0727469424309</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C22" t="n">
-        <v>391.0727469424309</v>
+        <v>344.9247294363731</v>
       </c>
       <c r="D22" t="n">
-        <v>391.0727469424309</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E22" t="n">
-        <v>391.0727469424309</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>391.0727469424309</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5935,25 +5937,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>391.0727469424309</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.0727469424309</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1605.38132674798</v>
+        <v>2319.517746219732</v>
       </c>
       <c r="C23" t="n">
-        <v>1605.38132674798</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D23" t="n">
-        <v>1605.38132674798</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E23" t="n">
-        <v>1219.593074149736</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F23" t="n">
-        <v>808.6071693601286</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>390.3354018430135</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
-        <v>59.98679251705477</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6026,13 +6028,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y23" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H24" t="n">
         <v>114.6107419524668</v>
@@ -6066,22 +6068,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
         <v>2344.749822082216</v>
@@ -6090,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2344.749822082216</v>
+        <v>1862.075782978312</v>
       </c>
       <c r="C25" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D25" t="n">
-        <v>2025.696999741974</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E25" t="n">
-        <v>1877.783906159581</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F25" t="n">
         <v>1783.87624508755</v>
@@ -6181,16 +6183,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W25" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="X25" t="n">
-        <v>2344.749822082216</v>
+        <v>1862.075782978312</v>
       </c>
       <c r="Y25" t="n">
-        <v>2344.749822082216</v>
+        <v>1862.075782978312</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1539.917753255091</v>
+        <v>1407.104335306102</v>
       </c>
       <c r="C26" t="n">
-        <v>1539.917753255091</v>
+        <v>1407.104335306102</v>
       </c>
       <c r="D26" t="n">
-        <v>1539.917753255091</v>
+        <v>1407.104335306102</v>
       </c>
       <c r="E26" t="n">
-        <v>1154.129500656847</v>
+        <v>1021.316082707858</v>
       </c>
       <c r="F26" t="n">
-        <v>743.1435958672394</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G26" t="n">
         <v>542.5821871309436</v>
@@ -6224,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6257,19 +6259,19 @@
         <v>2124.767062713795</v>
       </c>
       <c r="U26" t="n">
-        <v>1870.980640598662</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V26" t="n">
-        <v>1539.917753255091</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W26" t="n">
-        <v>1539.917753255091</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X26" t="n">
-        <v>1539.917753255091</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="Y26" t="n">
-        <v>1539.917753255091</v>
+        <v>1793.704175370224</v>
       </c>
     </row>
     <row r="27">
@@ -6285,10 +6287,10 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>447.6797356739884</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>331.5044402820673</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F27" t="n">
         <v>184.9698823089523</v>
@@ -6303,22 +6305,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1942.308778108447</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="D28" t="n">
         <v>1783.87624508755</v>
@@ -6418,16 +6420,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>2115.641349330125</v>
       </c>
       <c r="W28" t="n">
-        <v>2344.749822082216</v>
+        <v>2115.641349330125</v>
       </c>
       <c r="X28" t="n">
-        <v>2344.749822082216</v>
+        <v>2115.641349330125</v>
       </c>
       <c r="Y28" t="n">
-        <v>2123.957242938686</v>
+        <v>2115.641349330125</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="C29" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="D29" t="n">
-        <v>1539.917753255091</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E29" t="n">
-        <v>1154.129500656847</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F29" t="n">
         <v>960.8539546480588</v>
@@ -6461,16 +6463,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1870.980640598662</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V29" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W29" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X29" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y29" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.1984047608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D30" t="n">
         <v>665.4917812623953</v>
@@ -6540,22 +6542,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6567,25 +6569,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>401.7777381738809</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>242.8011754972942</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>412.4263787765005</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>412.4263787765005</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T31" t="n">
-        <v>412.4263787765005</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="U31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="V31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y31" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>556.114681770903</v>
+        <v>834.1292808991711</v>
       </c>
       <c r="C32" t="n">
-        <v>556.114681770903</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D32" t="n">
-        <v>556.114681770903</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E32" t="n">
-        <v>556.114681770903</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F32" t="n">
-        <v>556.114681770903</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6740,10 +6742,10 @@
         <v>929.5804400319828</v>
       </c>
       <c r="X32" t="n">
-        <v>556.114681770903</v>
+        <v>834.1292808991711</v>
       </c>
       <c r="Y32" t="n">
-        <v>556.114681770903</v>
+        <v>834.1292808991711</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F33" t="n">
         <v>359.7197682838247</v>
@@ -6777,22 +6779,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6801,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I34" t="n">
         <v>46.89499644164432</v>
@@ -6889,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="W34" t="n">
-        <v>318.3514033993496</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="X34" t="n">
-        <v>90.36185250133229</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1371.839859437666</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="C35" t="n">
-        <v>1371.839859437666</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D35" t="n">
-        <v>1371.839859437666</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E35" t="n">
         <v>1371.839859437666</v>
@@ -6962,25 +6964,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U35" t="n">
-        <v>1724.60851470778</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V35" t="n">
-        <v>1724.60851470778</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W35" t="n">
-        <v>1371.839859437666</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X35" t="n">
-        <v>1371.839859437666</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y35" t="n">
-        <v>1371.839859437666</v>
+        <v>2270.376276991246</v>
       </c>
     </row>
     <row r="36">
@@ -7014,46 +7016,46 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1460.197257673872</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
         <v>1364.854855989795</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.2915060868933</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C37" t="n">
-        <v>132.2915060868933</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D37" t="n">
-        <v>132.2915060868933</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E37" t="n">
-        <v>132.2915060868933</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F37" t="n">
-        <v>132.2915060868933</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7129,16 +7131,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>353.0840852304234</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>353.0840852304234</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>353.0840852304234</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.2915060868933</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>556.1146817709025</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="C38" t="n">
-        <v>556.1146817709025</v>
+        <v>1170.955236314679</v>
       </c>
       <c r="D38" t="n">
-        <v>556.1146817709025</v>
+        <v>1170.955236314679</v>
       </c>
       <c r="E38" t="n">
-        <v>556.1146817709025</v>
+        <v>1170.955236314679</v>
       </c>
       <c r="F38" t="n">
-        <v>556.1146817709025</v>
+        <v>759.969331525072</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>341.6975640079568</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709025</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="Y38" t="n">
-        <v>556.1146817709025</v>
+        <v>1539.917753255091</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.129334229901</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C39" t="n">
-        <v>639.676304948774</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,13 +7256,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
         <v>1486.172378671464</v>
@@ -7278,25 +7280,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>2115.526399526243</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U39" t="n">
-        <v>1887.3459351804</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V39" t="n">
-        <v>1652.193826948657</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W39" t="n">
-        <v>1397.956470220456</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X39" t="n">
-        <v>1190.104970014923</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.344671249969</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>231.8659289558998</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>84.97598145798943</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>84.97598145798943</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>84.97598145798943</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
         <v>46.89499644164432</v>
@@ -7333,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7363,19 +7365,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1704.363559902962</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C41" t="n">
-        <v>1335.40104296255</v>
+        <v>1718.21864718881</v>
       </c>
       <c r="D41" t="n">
-        <v>977.1353443557998</v>
+        <v>1359.952948582059</v>
       </c>
       <c r="E41" t="n">
-        <v>876.152668748367</v>
+        <v>974.1646959838151</v>
       </c>
       <c r="F41" t="n">
-        <v>465.1667639587595</v>
+        <v>563.1787911942076</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>144.9070236770925</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7409,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U41" t="n">
-        <v>2090.963399967084</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V41" t="n">
-        <v>2090.963399967084</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W41" t="n">
-        <v>2090.963399967084</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X41" t="n">
-        <v>2090.963399967084</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y41" t="n">
-        <v>2090.963399967084</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="D42" t="n">
         <v>665.4917812623953</v>
@@ -7488,22 +7490,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
         <v>2344.749822082216</v>
@@ -7512,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2055.332652045256</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C43" t="n">
-        <v>1933.992884499886</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>210.6410822848024</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>210.6410822848024</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>70.1579250839018</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>2055.332652045256</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>2055.332652045256</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y43" t="n">
-        <v>2055.332652045256</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="44">
@@ -7646,16 +7648,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7673,25 +7675,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2138.813858321605</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>1918.831098953184</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>1918.831098953184</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V44" t="n">
-        <v>1918.831098953184</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W44" t="n">
-        <v>1566.062443683069</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="X44" t="n">
-        <v>1192.59668542199</v>
+        <v>1140.963991229606</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.4573534461779</v>
+        <v>750.8246592537942</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592726</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
         <v>2344.749822082216</v>
@@ -7749,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7839,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X46" t="n">
-        <v>379.7790225382929</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y46" t="n">
-        <v>158.9864433947628</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7810435509598</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>307.2673352605755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q21" t="n">
         <v>57.08896698613911</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,10 +9731,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>390.8949017221348</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q24" t="n">
         <v>57.08896698613911</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>57.08896698613911</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,10 +10205,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221348</v>
       </c>
       <c r="P30" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613911</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613911</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q42" t="n">
         <v>57.0889669861391</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>57.0889669861391</v>
@@ -23258,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>138.7054404458479</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>85.84602630947848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23349,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>143.6184697512197</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>28.83758272201692</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77872847923217</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>133.1410289771301</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>318.9677389197128</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.9007265918932</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>78.93978812388792</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>232.4859232169792</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.86622285314589</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>60.36469784837664</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23817,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23862,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>171.1727984292528</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>230.4212574892055</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>219.2776686724947</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.82736479433737</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24060,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U21" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>132.7410709277273</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.1757105338894</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24175,7 +24177,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>357.7540865596212</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>150.7243174350508</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24294,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>89.8292785867732</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>52.45246356162097</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
@@ -24421,13 +24423,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>347.0185389625105</v>
       </c>
       <c r="G26" t="n">
-        <v>215.5332551930111</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24525,13 +24527,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>42.63153801739911</v>
+        <v>45.00739118865395</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>10.3986134079401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24658,7 +24660,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>25.32025529925787</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>246.2084518230427</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>215.5332551930113</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>42.92542614420708</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9044066543622</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>171.1727984292525</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>400.6918801483841</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>275.2344531369855</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>45.30127931546181</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25129,19 +25131,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>37.54937905666415</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.5524658530037</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>212.3352500859092</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>110.084566741492</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>111.3840075362419</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>61.42352734555773</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>82.90401630215915</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25369,7 +25371,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.6918801483846</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>35.19058134204971</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25451,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25485,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>190.0766035820376</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -25567,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>101.3781504627099</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25603,16 +25605,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>281.9575212209033</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>230.0132162696054</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>23.83730805897849</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>47.12045122871152</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>31.8384922803669</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>51.11636725045986</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.11636725045977</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>45.00739118865397</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26004,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.86144769835001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>26.07392824159841</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607719.5484686478</v>
+        <v>607719.5484686476</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607719.5484686476</v>
+        <v>607719.5484686479</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607719.5484686476</v>
+        <v>607719.5484686478</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607719.5484686478</v>
+        <v>607719.5484686476</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607719.5484686479</v>
+        <v>607719.5484686478</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607719.5484686476</v>
+        <v>607719.5484686475</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607719.548468648</v>
+        <v>607719.5484686476</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607719.5484686476</v>
+        <v>607719.5484686478</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26316,22 @@
         <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="F2" t="n">
-        <v>370126.5396699015</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="G2" t="n">
         <v>370126.5396699013</v>
       </c>
       <c r="H2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="I2" t="n">
         <v>370126.5396699013</v>
@@ -26338,7 +26340,7 @@
         <v>370126.5396699014</v>
       </c>
       <c r="K2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699013</v>
       </c>
       <c r="L2" t="n">
         <v>370126.5396699014</v>
@@ -26350,10 +26352,10 @@
         <v>370126.5396699013</v>
       </c>
       <c r="O2" t="n">
+        <v>370126.5396699014</v>
+      </c>
+      <c r="P2" t="n">
         <v>370126.5396699013</v>
-      </c>
-      <c r="P2" t="n">
-        <v>370126.5396699014</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910624</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,31 +26423,31 @@
         <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>329330.5315619939</v>
+        <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
+        <v>52974.8893495167</v>
+      </c>
+      <c r="F4" t="n">
         <v>52974.88934951671</v>
-      </c>
-      <c r="F4" t="n">
-        <v>52974.8893495167</v>
       </c>
       <c r="G4" t="n">
         <v>52974.8893495167</v>
       </c>
       <c r="H4" t="n">
+        <v>52974.88934951671</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52974.88934951671</v>
+      </c>
+      <c r="J4" t="n">
         <v>52974.8893495167</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>52974.8893495167</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>52974.88934951671</v>
-      </c>
-      <c r="K4" t="n">
-        <v>52974.88934951671</v>
-      </c>
-      <c r="L4" t="n">
-        <v>52974.8893495167</v>
       </c>
       <c r="M4" t="n">
         <v>52974.8893495167</v>
@@ -26454,10 +26456,10 @@
         <v>52974.8893495167</v>
       </c>
       <c r="O4" t="n">
-        <v>52974.88934951669</v>
+        <v>52974.88934951671</v>
       </c>
       <c r="P4" t="n">
-        <v>52974.88934951669</v>
+        <v>52974.8893495167</v>
       </c>
     </row>
     <row r="5">
@@ -26522,22 +26524,22 @@
         <v>116348.0070476948</v>
       </c>
       <c r="C6" t="n">
-        <v>197117.4385792423</v>
+        <v>197117.4385792425</v>
       </c>
       <c r="D6" t="n">
-        <v>197117.4385792428</v>
+        <v>197117.4385792425</v>
       </c>
       <c r="E6" t="n">
-        <v>-70682.41458401468</v>
+        <v>-70682.41458401456</v>
       </c>
       <c r="F6" t="n">
-        <v>274929.9281949382</v>
+        <v>274929.9281949381</v>
       </c>
       <c r="G6" t="n">
         <v>274929.9281949381</v>
       </c>
       <c r="H6" t="n">
-        <v>274929.928194938</v>
+        <v>274929.9281949381</v>
       </c>
       <c r="I6" t="n">
         <v>274929.9281949381</v>
@@ -26546,10 +26548,10 @@
         <v>211869.9855958319</v>
       </c>
       <c r="K6" t="n">
-        <v>274929.928194938</v>
+        <v>274929.9281949381</v>
       </c>
       <c r="L6" t="n">
-        <v>274929.9281949381</v>
+        <v>274929.9281949382</v>
       </c>
       <c r="M6" t="n">
         <v>188911.3943748621</v>
@@ -26558,7 +26560,7 @@
         <v>274929.9281949381</v>
       </c>
       <c r="O6" t="n">
-        <v>274929.9281949381</v>
+        <v>274929.9281949382</v>
       </c>
       <c r="P6" t="n">
         <v>274929.9281949381</v>
@@ -26750,7 +26752,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062786</v>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>369.7532147690989</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,25 +27463,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27515,13 +27517,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>39.33893758286192</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>221.8426869680169</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.799626624675113</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>69.51331445628426</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>108.4255505935846</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>48.02107603535572</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>9.988000468430954</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32230,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32253,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32321,25 +32323,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35489,13 +35491,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35726,7 +35728,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35741,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35898,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35975,7 +35977,7 @@
         <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36042,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7110456222515</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36215,7 +36217,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36449,10 +36451,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>402.8027153709875</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,7 +36691,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
@@ -36923,10 +36925,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>402.8027153709875</v>
       </c>
       <c r="P30" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,7 +37165,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37631,10 +37633,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37874,7 +37876,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38035,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38111,7 +38113,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1723878.43473096</v>
+        <v>1682054.653061953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584659</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7906181.930417106</v>
+        <v>7906181.930417105</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>200.3360962888296</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>89.60080807427005</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>131.0150542691797</v>
       </c>
       <c r="X6" t="n">
-        <v>136.2596707471932</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5810588664029</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>212.2853856434421</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>177.9203060456191</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>201.6841103934577</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>188.3396827868512</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>82.28018995116467</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.35606979968759</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>92.4784086463653</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>81.85050390350975</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>45.56224815806319</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
@@ -1742,7 +1742,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>146.9588715784964</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>54.44663919424259</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>111.496938880258</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>26.17681189757447</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>106.1684858014907</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>149.1650790561453</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.35606979968777</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>43.12240526463283</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>320.2177584383617</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>45.31151646181076</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>45.56224815806301</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>144.1648043931067</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.50575017090058</v>
+        <v>19.35114876375834</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.97975510385934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>104.497127577932</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>24.64815776426665</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>77.41754251185463</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>43.0321874990911</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>59.85750677920095</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>216.6973887958871</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,16 +2642,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>112.637689266747</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>15.49388191696403</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="V28" t="n">
-        <v>226.8173880245701</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>108.4745897976403</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>81.90769689072187</v>
       </c>
     </row>
     <row r="30">
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>123.6077575056603</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2924,7 +2924,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>7.176779257663802</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1165353722836</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -3079,25 +3079,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>94.49664754148353</v>
+        <v>290.1194231663002</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>121.2319043344055</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>106.2387529750474</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>248.739954744872</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>10.41424504411798</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9376416850984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>351.8251894796512</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>53.92880121529013</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>127.4055280274469</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>85.01043530101144</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>242.3972323508324</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>291.8545418906494</v>
+        <v>50.31901597580531</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>100.053298877208</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>16.8378640993551</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>97.03190696309366</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>303.0090314087148</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>123.6077575056603</v>
+        <v>17.20776338009242</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3836,10 +3836,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3906,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>44.13311532576305</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>23.0302993558349</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>331.6174744130207</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>69.33770426733437</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,13 +4064,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>136.1687405577497</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>108.0765134097</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>122.5415447766139</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>101.4950217895004</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>341.056931913353</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="F3" t="n">
         <v>362.4348659156472</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,10 +4655,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>533.6469426057913</v>
+        <v>831.7187168548992</v>
       </c>
       <c r="X6" t="n">
-        <v>396.0109115480204</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.2506127830665</v>
+        <v>416.1069178844125</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>746.3079049238204</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307.1033079837604</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>683.1701452093612</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>683.1701452093612</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W9" t="n">
-        <v>683.1701452093612</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X9" t="n">
-        <v>475.3186450038284</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y9" t="n">
-        <v>475.3186450038284</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>1019.867923467758</v>
       </c>
       <c r="C11" t="n">
-        <v>1975.787305141805</v>
+        <v>816.1465998380024</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.521606535054</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E11" t="n">
-        <v>1231.73335393681</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F11" t="n">
-        <v>820.7474491472024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4756816300872</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5044,16 +5044,16 @@
         <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
         <v>1962.442083972113</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1406.467763531879</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5147,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2145.207124136247</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="C13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5205,46 +5205,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>102.3180182963936</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="V13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="W13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="X13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.3180182963936</v>
+        <v>90.68900634031866</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>818.1865810445654</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>459.9208824378149</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>129.5722731118562</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
         <v>762.5916738244549</v>
@@ -5308,22 +5308,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1187.149097984977</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>701.8699246762143</v>
+        <v>636.554030853528</v>
       </c>
       <c r="C15" t="n">
-        <v>527.4168953950873</v>
+        <v>462.101001572401</v>
       </c>
       <c r="D15" t="n">
-        <v>527.4168953950873</v>
+        <v>313.1665919111497</v>
       </c>
       <c r="E15" t="n">
-        <v>368.1794403896317</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F15" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2298.727349195284</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2137.493794095839</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>1937.95109614987</v>
       </c>
       <c r="U15" t="n">
-        <v>1775.086525626713</v>
+        <v>1709.770631804027</v>
       </c>
       <c r="V15" t="n">
-        <v>1539.934417394971</v>
+        <v>1474.618523572284</v>
       </c>
       <c r="W15" t="n">
-        <v>1285.697060666769</v>
+        <v>1220.381166844083</v>
       </c>
       <c r="X15" t="n">
-        <v>1077.845560461236</v>
+        <v>1012.52966663855</v>
       </c>
       <c r="Y15" t="n">
-        <v>870.0852616962823</v>
+        <v>804.7693678735961</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5463,25 +5463,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>788.2295105572106</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C17" t="n">
-        <v>788.2295105572106</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D17" t="n">
-        <v>788.2295105572106</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E17" t="n">
-        <v>788.2295105572106</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F17" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5515,13 +5515,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5542,25 +5542,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2232.126651496097</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2232.126651496097</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="U17" t="n">
-        <v>2232.126651496097</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="V17" t="n">
-        <v>1901.063764152526</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="W17" t="n">
-        <v>1548.295108882412</v>
+        <v>1965.539942673138</v>
       </c>
       <c r="X17" t="n">
-        <v>1174.829350621332</v>
+        <v>1592.074184412058</v>
       </c>
       <c r="Y17" t="n">
-        <v>1174.829350621332</v>
+        <v>1201.934852436247</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>683.1072072262029</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C18" t="n">
-        <v>508.654177945076</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D18" t="n">
-        <v>359.7197682838247</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E18" t="n">
-        <v>359.7197682838247</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5597,7 +5597,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L18" t="n">
         <v>705.6153558007836</v>
@@ -5676,7 +5676,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5700,19 +5700,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>336.0761416957212</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.45298155743507</v>
       </c>
       <c r="X19" t="n">
         <v>46.89499644164432</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>739.3097946329265</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C20" t="n">
-        <v>370.3472776925148</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D20" t="n">
-        <v>370.3472776925148</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E20" t="n">
-        <v>370.3472776925148</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F20" t="n">
-        <v>370.3472776925148</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
-        <v>370.3472776925148</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5752,13 +5752,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5782,22 +5782,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>2224.607068443962</v>
       </c>
       <c r="U20" t="n">
-        <v>1796.607095507691</v>
+        <v>1970.820646328829</v>
       </c>
       <c r="V20" t="n">
-        <v>1465.54420816412</v>
+        <v>1639.757758985259</v>
       </c>
       <c r="W20" t="n">
-        <v>1112.775552894006</v>
+        <v>1639.757758985259</v>
       </c>
       <c r="X20" t="n">
-        <v>739.3097946329265</v>
+        <v>1266.292000724179</v>
       </c>
       <c r="Y20" t="n">
-        <v>739.3097946329265</v>
+        <v>876.152668748367</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.0544483625931</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C21" t="n">
-        <v>501.6014190814661</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D21" t="n">
-        <v>352.6670094202149</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>92.91746932857666</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5837,13 +5837,13 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M21" t="n">
         <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1640.568559592725</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O21" t="n">
         <v>2042.280991189052</v>
@@ -5855,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>1977.451513658935</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1749.271049313092</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1514.118941081349</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1259.881584353148</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.030084147615</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.2697853826612</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.7790225382929</v>
+        <v>566.78431370192</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9247294363731</v>
+        <v>547.2376987890328</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8080900240374</v>
+        <v>397.1210593766971</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>249.207965794304</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J22" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5931,31 +5931,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="X22" t="n">
-        <v>379.7790225382929</v>
+        <v>566.78431370192</v>
       </c>
       <c r="Y22" t="n">
-        <v>379.7790225382929</v>
+        <v>566.78431370192</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2319.517746219732</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="C23" t="n">
-        <v>1950.55522927932</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D23" t="n">
-        <v>1592.28953067257</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5989,16 +5989,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6025,16 +6025,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082216</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082216</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.749822082216</v>
+        <v>897.3131892316399</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6080,13 +6080,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1862.075782978312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>2090.06533387633</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W25" t="n">
-        <v>2090.06533387633</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X25" t="n">
-        <v>1862.075782978312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>1862.075782978312</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1407.104335306102</v>
+        <v>1020.532017289277</v>
       </c>
       <c r="C26" t="n">
-        <v>1407.104335306102</v>
+        <v>651.5695003488654</v>
       </c>
       <c r="D26" t="n">
-        <v>1407.104335306102</v>
+        <v>651.5695003488654</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.316082707858</v>
+        <v>265.7812477506212</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>265.7812477506212</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>265.7812477506212</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6256,22 +6256,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>2124.767062713795</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V26" t="n">
-        <v>1793.704175370224</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W26" t="n">
-        <v>1793.704175370224</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="X26" t="n">
-        <v>1793.704175370224</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="Y26" t="n">
-        <v>1793.704175370224</v>
+        <v>1407.131857353399</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E27" t="n">
-        <v>184.9698823089523</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F27" t="n">
-        <v>184.9698823089523</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6305,52 +6305,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2329.099436307505</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2167.86588120806</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1968.323183262091</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1740.142718916248</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1933.992884499886</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>1933.992884499886</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V28" t="n">
-        <v>2115.641349330125</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W28" t="n">
-        <v>2115.641349330125</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>2115.641349330125</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>2115.641349330125</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1867.1984047608</v>
+        <v>1578.183232104166</v>
       </c>
       <c r="C29" t="n">
-        <v>1867.1984047608</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.628112035911</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E29" t="n">
-        <v>1371.839859437666</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1867.1984047608</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W29" t="n">
-        <v>1867.1984047608</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X29" t="n">
-        <v>1867.1984047608</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="Y29" t="n">
-        <v>1867.1984047608</v>
+        <v>1578.183232104166</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>665.4917812623953</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="C30" t="n">
-        <v>665.4917812623953</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
         <v>665.4917812623953</v>
@@ -6542,25 +6542,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6572,22 +6572,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2115.823256219988</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.642791874146</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1652.490683642403</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1398.253326914201</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1190.401826708669</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>982.6415279437147</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2128.053995588337</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>1900.155573746422</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.87624508755</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.87624508755</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>834.1292808991711</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="C32" t="n">
-        <v>465.1667639587595</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D32" t="n">
-        <v>465.1667639587595</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E32" t="n">
-        <v>465.1667639587595</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F32" t="n">
         <v>465.1667639587595</v>
@@ -6700,16 +6700,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645668</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302097</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319828</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X32" t="n">
-        <v>834.1292808991711</v>
+        <v>1624.557699330929</v>
       </c>
       <c r="Y32" t="n">
-        <v>834.1292808991711</v>
+        <v>1234.418367355117</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>667.8916329505314</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>667.8916329505314</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>518.9572232892801</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>359.7197682838247</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6794,10 +6794,10 @@
         <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6806,25 +6806,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>356.5160938960355</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C34" t="n">
-        <v>356.5160938960355</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D34" t="n">
-        <v>356.5160938960355</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E34" t="n">
-        <v>356.5160938960355</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5160938960355</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
         <v>46.89499644164432</v>
@@ -6891,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>356.5160938960355</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>356.5160938960355</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>356.5160938960355</v>
+        <v>597.2491339978072</v>
       </c>
       <c r="X34" t="n">
-        <v>356.5160938960355</v>
+        <v>597.2491339978072</v>
       </c>
       <c r="Y34" t="n">
-        <v>356.5160938960355</v>
+        <v>376.4565548542771</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2270.376276991246</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C35" t="n">
-        <v>2115.893810642661</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.628112035911</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="E35" t="n">
-        <v>1371.839859437666</v>
+        <v>813.2598805036268</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>402.2739757140193</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y35" t="n">
-        <v>2270.376276991246</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7028,40 +7028,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="C37" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="D37" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="E37" t="n">
-        <v>521.899446869632</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F37" t="n">
-        <v>375.0094993717216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G37" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7131,16 +7131,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.7685734363102</v>
+        <v>362.9228841930452</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1539.917753255091</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="C38" t="n">
-        <v>1170.955236314679</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="D38" t="n">
-        <v>1170.955236314679</v>
+        <v>483.5105379043384</v>
       </c>
       <c r="E38" t="n">
-        <v>1170.955236314679</v>
+        <v>97.72228530609414</v>
       </c>
       <c r="F38" t="n">
-        <v>759.969331525072</v>
+        <v>97.72228530609414</v>
       </c>
       <c r="G38" t="n">
-        <v>341.6975640079568</v>
+        <v>97.72228530609414</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7174,16 +7174,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7204,22 +7204,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1870.980640598662</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1539.917753255091</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>1539.917753255091</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X38" t="n">
-        <v>1539.917753255091</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y38" t="n">
-        <v>1539.917753255091</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7256,16 +7256,16 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O39" t="n">
         <v>1887.88481026779</v>
@@ -7283,22 +7283,22 @@
         <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.242145037065</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>590.7606299016081</v>
       </c>
       <c r="U40" t="n">
-        <v>318.5874281822333</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V40" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W40" t="n">
         <v>46.89499644164432</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2087.181164129222</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C41" t="n">
-        <v>1718.21864718881</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D41" t="n">
-        <v>1359.952948582059</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E41" t="n">
-        <v>974.1646959838151</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F41" t="n">
-        <v>563.1787911942076</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
-        <v>144.9070236770925</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7414,10 +7414,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>2087.181164129222</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y41" t="n">
-        <v>2087.181164129222</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>790.3481019751835</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C42" t="n">
-        <v>790.3481019751835</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7493,7 +7493,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
         <v>705.6153558007836</v>
@@ -7502,40 +7502,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>379.7790225382929</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C43" t="n">
-        <v>379.7790225382929</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D43" t="n">
-        <v>379.7790225382929</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E43" t="n">
-        <v>379.7790225382929</v>
+        <v>231.9570580120026</v>
       </c>
       <c r="F43" t="n">
-        <v>379.7790225382929</v>
+        <v>231.9570580120026</v>
       </c>
       <c r="G43" t="n">
-        <v>210.6410822848024</v>
+        <v>231.9570580120026</v>
       </c>
       <c r="H43" t="n">
-        <v>210.6410822848024</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I43" t="n">
-        <v>70.1579250839018</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200978</v>
@@ -7599,22 +7599,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X43" t="n">
-        <v>379.7790225382929</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y43" t="n">
-        <v>379.7790225382929</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.857513382056</v>
+        <v>1901.245978702617</v>
       </c>
       <c r="C44" t="n">
-        <v>46.89499644164432</v>
+        <v>1532.283461762205</v>
       </c>
       <c r="D44" t="n">
-        <v>46.89499644164432</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E44" t="n">
-        <v>46.89499644164432</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F44" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7648,13 +7648,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2274.711736963697</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.1984047608</v>
+        <v>2274.711736963697</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.1984047608</v>
+        <v>2274.711736963697</v>
       </c>
       <c r="W44" t="n">
-        <v>1514.429749490686</v>
+        <v>2274.711736963697</v>
       </c>
       <c r="X44" t="n">
-        <v>1140.963991229606</v>
+        <v>1901.245978702617</v>
       </c>
       <c r="Y44" t="n">
-        <v>750.8246592537942</v>
+        <v>1901.245978702617</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="G45" t="n">
         <v>221.6448824165167</v>
@@ -7730,22 +7730,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7754,25 +7754,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>2145.207124136247</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>1917.026659790404</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1681.874551558662</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C46" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
         <v>46.89499644164432</v>
@@ -7839,19 +7839,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>318.5874281822333</v>
+        <v>505.2483494065119</v>
       </c>
       <c r="W46" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="X46" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y46" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>462.7376461954053</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7810435509599</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>315.4953510853424</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O30" t="n">
-        <v>390.8949017221348</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P33" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>415.7693643006697</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>163.5887813775499</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>138.7054404458479</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>143.6184697512197</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.0649782232437</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -23439,7 +23439,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1410289771301</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.83469164619743</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.27705323942823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>78.93978812388792</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>171.1727984292528</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>69.86622285314589</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>191.606119877163</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60.36469784837664</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>23.54341993217042</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>171.1727984292528</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>182.5872501244043</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.82736479433737</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24022,7 +24022,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>172.4714153129267</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>21.47633989765124</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>53.38246657340289</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>132.7410709277273</v>
+        <v>147.8956723348695</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24147,10 +24147,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.7540865596212</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>260.7757641930755</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24265,16 +24265,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>120.4210546291172</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G24" t="n">
         <v>136.6941370086349</v>
@@ -24305,7 +24305,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>89.8292785867732</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24423,10 +24423,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>209.1054558247369</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>347.0185389625105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>110.347734436812</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24530,16 +24530,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>45.00739118865395</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>44.34541948052739</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24657,13 +24657,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>269.6851342372358</v>
       </c>
       <c r="V28" t="n">
-        <v>25.32025529925787</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>246.2084518230427</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>304.3302417653317</v>
       </c>
     </row>
     <row r="30">
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42.92542614420708</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>190.3704917088458</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1727984292525</v>
+        <v>269.6851342372358</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>275.2344531369855</v>
+        <v>79.6116775121688</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.30127931546181</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>53.38246657340278</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25131,19 +25131,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>37.54937905666415</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>276.108753292473</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.3352500859092</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>62.26386036229275</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>143.6184697512195</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>98.49313167493744</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>61.42352734555773</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25371,7 +25371,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>9.740410972995619</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>35.19058134204971</v>
+        <v>276.7261072568938</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25444,22 +25444,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>97.49397208930165</v>
       </c>
       <c r="U39" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.6851342372359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>230.0132162696054</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>66.72206926975423</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>23.83730805897849</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>113.2536817240578</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.8384922803669</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25839,7 +25839,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.11636725045986</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>148.4452275074031</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,13 +25952,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5253964508851823</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>26.07392824159841</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,13 +26079,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>150.6426215343276</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607719.5484686479</v>
+        <v>607719.5484686478</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607719.5484686478</v>
+        <v>607719.5484686476</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607719.5484686478</v>
+        <v>607719.5484686475</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607719.5484686478</v>
+        <v>607719.5484686476</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607719.5484686478</v>
+        <v>607719.5484686476</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="E2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="F2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="G2" t="n">
         <v>370126.5396699014</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="I2" t="n">
         <v>370126.5396699014</v>
-      </c>
-      <c r="G2" t="n">
-        <v>370126.5396699013</v>
-      </c>
-      <c r="H2" t="n">
-        <v>370126.5396699014</v>
-      </c>
-      <c r="I2" t="n">
-        <v>370126.5396699013</v>
       </c>
       <c r="J2" t="n">
         <v>370126.5396699014</v>
       </c>
       <c r="K2" t="n">
+        <v>370126.5396699012</v>
+      </c>
+      <c r="L2" t="n">
         <v>370126.5396699013</v>
       </c>
-      <c r="L2" t="n">
-        <v>370126.5396699014</v>
-      </c>
       <c r="M2" t="n">
-        <v>370126.5396699013</v>
+        <v>370126.5396699012</v>
       </c>
       <c r="N2" t="n">
-        <v>370126.5396699013</v>
+        <v>370126.5396699012</v>
       </c>
       <c r="O2" t="n">
         <v>370126.5396699014</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910622</v>
+        <v>63059.94259910624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>329330.531561994</v>
       </c>
       <c r="C4" t="n">
-        <v>329330.531561994</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="D4" t="n">
         <v>329330.531561994</v>
@@ -26429,13 +26429,13 @@
         <v>52974.8893495167</v>
       </c>
       <c r="F4" t="n">
-        <v>52974.88934951671</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="G4" t="n">
         <v>52974.8893495167</v>
       </c>
       <c r="H4" t="n">
-        <v>52974.88934951671</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="I4" t="n">
         <v>52974.88934951671</v>
@@ -26444,13 +26444,13 @@
         <v>52974.8893495167</v>
       </c>
       <c r="K4" t="n">
+        <v>52974.88934951671</v>
+      </c>
+      <c r="L4" t="n">
         <v>52974.8893495167</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>52974.88934951671</v>
-      </c>
-      <c r="M4" t="n">
-        <v>52974.8893495167</v>
       </c>
       <c r="N4" t="n">
         <v>52974.8893495167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116348.0070476948</v>
+        <v>116348.007047695</v>
       </c>
       <c r="C6" t="n">
-        <v>197117.4385792425</v>
+        <v>197117.4385792429</v>
       </c>
       <c r="D6" t="n">
-        <v>197117.4385792425</v>
+        <v>197117.4385792424</v>
       </c>
       <c r="E6" t="n">
-        <v>-70682.41458401456</v>
+        <v>-77989.65384241095</v>
       </c>
       <c r="F6" t="n">
-        <v>274929.9281949381</v>
+        <v>267622.6889365417</v>
       </c>
       <c r="G6" t="n">
-        <v>274929.9281949381</v>
+        <v>267622.6889365418</v>
       </c>
       <c r="H6" t="n">
-        <v>274929.9281949381</v>
+        <v>267622.6889365417</v>
       </c>
       <c r="I6" t="n">
-        <v>274929.9281949381</v>
+        <v>267622.6889365418</v>
       </c>
       <c r="J6" t="n">
-        <v>211869.9855958319</v>
+        <v>204562.7463374356</v>
       </c>
       <c r="K6" t="n">
-        <v>274929.9281949381</v>
+        <v>267622.6889365417</v>
       </c>
       <c r="L6" t="n">
-        <v>274929.9281949382</v>
+        <v>267622.6889365417</v>
       </c>
       <c r="M6" t="n">
-        <v>188911.3943748621</v>
+        <v>181604.1551164656</v>
       </c>
       <c r="N6" t="n">
-        <v>274929.9281949381</v>
+        <v>267622.6889365417</v>
       </c>
       <c r="O6" t="n">
-        <v>274929.9281949382</v>
+        <v>267622.6889365418</v>
       </c>
       <c r="P6" t="n">
-        <v>274929.9281949381</v>
+        <v>267622.6889365417</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26776,7 +26776,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>214.9666412263055</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>55.46840431911383</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27633,13 +27633,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,10 +27703,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,19 +27748,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>120.6799288917399</v>
       </c>
       <c r="X6" t="n">
-        <v>69.51331445628426</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.3493112058589</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27949,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>48.02107603535572</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31758,25 +31758,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31785,16 +31785,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31861,7 +31861,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31870,10 +31870,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32253,22 +32253,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32323,25 +32323,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35418,13 +35418,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183088</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35509,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35898,13 +35898,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35977,7 +35977,7 @@
         <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36214,10 +36214,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>305.5240716092571</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36685,7 +36685,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36694,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
@@ -36922,16 +36922,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O30" t="n">
-        <v>402.8027153709875</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P33" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37405,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37636,7 +37636,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37870,16 +37870,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
